--- a/Hendrik/Meilenstein 2/output.xlsx
+++ b/Hendrik/Meilenstein 2/output.xlsx
@@ -105,7 +105,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Puentes Denver mit Anzahl 3</t>
+          <t>Nike mit Anzahl 25</t>
         </is>
       </c>
     </row>
